--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>列1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +51,34 @@
   </si>
   <si>
     <t>str3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -111,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -185,7 +207,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,7 +241,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,16 +416,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +441,20 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -432,8 +467,20 @@
       <c r="E2">
         <v>5.2</v>
       </c>
+      <c r="F2" s="1">
+        <v>42375</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -445,6 +492,18 @@
       </c>
       <c r="E3">
         <v>6.6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42375</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -455,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -468,12 +527,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -511,30 +509,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>